--- a/medicine/Enfance/Kazuo_Iwamura/Kazuo_Iwamura.xlsx
+++ b/medicine/Enfance/Kazuo_Iwamura/Kazuo_Iwamura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kazuo Iwamura (Tokyo, 3 avril 1939) est un auteur-illustrateur japonais pour la littérature jeunesse. Il est particulièrement connu en France pour la série d'albums La Famille Souris.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1945, à six ans, Kazuo entre à l’école primaire alors que le Japon capitule devant les États-Unis. Dix ans plus tard, alors que les universités rouvrent leurs portes, Kazuo suit un cursus à l’École nationale supérieure des arts décoratifs puis après son diplôme, travaille comme illustrateur pour les émissions de la télévision japonaise NHK. İl écrit et dessine ses premiers livres pour enfants après avoir été graphiste dans une entreprise de cosmétiques[1].
-Kazuo Iwamura vit dans la ville japonaise de Mashiko, dans la Région du Kantō. İl a reçu l’insigne de Chevalier des Arts et Lettres en décembre 2014[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1945, à six ans, Kazuo entre à l’école primaire alors que le Japon capitule devant les États-Unis. Dix ans plus tard, alors que les universités rouvrent leurs portes, Kazuo suit un cursus à l’École nationale supérieure des arts décoratifs puis après son diplôme, travaille comme illustrateur pour les émissions de la télévision japonaise NHK. İl écrit et dessine ses premiers livres pour enfants après avoir été graphiste dans une entreprise de cosmétiques.
+Kazuo Iwamura vit dans la ville japonaise de Mashiko, dans la Région du Kantō. İl a reçu l’insigne de Chevalier des Arts et Lettres en décembre 2014.
 </t>
         </is>
       </c>
